--- a/biology/Médecine/Bernard_Berthod/Bernard_Berthod.xlsx
+++ b/biology/Médecine/Bernard_Berthod/Bernard_Berthod.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernard Berthod, né le 13 septembre 1952 à Lyon en France, est un homme de culture, successivement médecin, historien, écrivain et responsable d'expositions.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père dirigeait, sur les pentes de la Croix Rousse, une entreprise de cartonnage en lien direct avec les métiers de la soie.
-Ses études médicales et d’odonto-stomatologie sont couronnées par la soutenance d’une thèse sur Jean-Jacques de Gorla, chirurgien lyonnais et beau-père de Molière (Université Lyon 1 Claude Bernard, juillet 1975). Il entreprend ensuite des études d’histoire de l'art à l'issue desquelles il obtient en 1995 le diplôme de docteur ès lettres[1].
+Ses études médicales et d’odonto-stomatologie sont couronnées par la soutenance d’une thèse sur Jean-Jacques de Gorla, chirurgien lyonnais et beau-père de Molière (Université Lyon 1 Claude Bernard, juillet 1975). Il entreprend ensuite des études d’histoire de l'art à l'issue desquelles il obtient en 1995 le diplôme de docteur ès lettres.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Itinéraire culturel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1984, il est sollicité pour prendre en charge le Musée d’art sacré de Fourvière. En dix ans, Bernard Berthod en fait un véritable musée : agrandissement, politique d’acquisition, aménagement muséologique, expositions temporaires : 35 en 31 ans dont chacune a mis en lumière une expression de l’art sacré aux XIXe et XXe siècles. Cette valorisation de l’art du XIXe siècle a débuté à Fourvière à une période où ni l’art sacré, ni l’art du XIXe siècle ne jouissaient de la faveur qu’ils connaissent au XXIe siècle. Il exerce cette activité à titre bénévole. 
 Parallèlement, Bernard Berthod participe à l’organisation de plusieurs expositions :
@@ -584,7 +600,9 @@
           <t>L'homme des arts et des lettres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernard Berthod est également l’auteur de nombreux articles spécialisés, il cosigne et dirige :
 le Dictionnaire historique des étoffes (Éditions de l'Amateur, Paris,1994) ;
@@ -632,14 +650,16 @@
           <t>Décorations et récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> chevalier de l’Ordre national du Mérite en 2009.
  chevalier (1997) puis officier (2005) de l’Ordre des Arts et des Lettres.
  chevalier de l'Ordre de Saint-Grégoire-le-Grand (Saint-Siège) en 2006.
  chevalier de l'Ordre de l'Étoile de la solidarité italienne (République italienne) en 2009.
  chevalier Grand-Croix de l'Ordre du Saint-Sépulcre de Jérusalem en 2014.
-En novembre 2007, il est lauréat de l’Académie des sciences morales et politiques : il reçoit le prix de la Fondation Chanoine Delpeuch, « pour l’ensemble de son œuvre et de son action en faveur du patrimoine religieux »[2].
+En novembre 2007, il est lauréat de l’Académie des sciences morales et politiques : il reçoit le prix de la Fondation Chanoine Delpeuch, « pour l’ensemble de son œuvre et de son action en faveur du patrimoine religieux ».
 </t>
         </is>
       </c>
